--- a/non_explainable_medium_disc/train/disc_free_labels.xlsx
+++ b/non_explainable_medium_disc/train/disc_free_labels.xlsx
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1052,7 +1052,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1148,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1220,7 +1220,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1228,7 +1228,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1324,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1420,7 +1420,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1468,7 +1468,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1588,7 +1588,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1620,7 +1620,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2236,7 +2236,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2340,7 +2340,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2388,7 +2388,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2468,7 +2468,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2532,7 +2532,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -2604,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -2636,7 +2636,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -2668,7 +2668,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -2700,7 +2700,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -2708,7 +2708,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2756,7 +2756,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -3044,7 +3044,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3100,7 +3100,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3148,7 +3148,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -3396,7 +3396,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -3468,7 +3468,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -3476,7 +3476,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -3844,7 +3844,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -3972,7 +3972,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4036,7 +4036,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -4044,7 +4044,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4484,7 +4484,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -4652,7 +4652,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -4748,7 +4748,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -4820,7 +4820,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -4988,7 +4988,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -5084,7 +5084,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -5164,7 +5164,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -5660,7 +5660,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -5756,7 +5756,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -5828,7 +5828,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -5900,7 +5900,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -5932,7 +5932,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -6172,7 +6172,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -6404,7 +6404,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -6524,7 +6524,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -6532,7 +6532,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -6564,7 +6564,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -6572,7 +6572,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -6676,7 +6676,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -6844,7 +6844,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -6852,7 +6852,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -7020,7 +7020,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -7140,7 +7140,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -7604,7 +7604,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -7740,7 +7740,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -7780,7 +7780,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -7916,7 +7916,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -8260,7 +8260,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -8340,7 +8340,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -8404,7 +8404,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -8564,7 +8564,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -8572,7 +8572,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -8708,7 +8708,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036">
@@ -9004,7 +9004,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -9052,7 +9052,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -9108,7 +9108,7 @@
         <v>1083</v>
       </c>
       <c r="B1085" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086">
@@ -9164,7 +9164,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -9188,7 +9188,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -9444,7 +9444,7 @@
         <v>1125</v>
       </c>
       <c r="B1127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -9620,7 +9620,7 @@
         <v>1147</v>
       </c>
       <c r="B1149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
@@ -9636,7 +9636,7 @@
         <v>1149</v>
       </c>
       <c r="B1151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152">
@@ -9852,7 +9852,7 @@
         <v>1176</v>
       </c>
       <c r="B1178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -10308,7 +10308,7 @@
         <v>1233</v>
       </c>
       <c r="B1235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236">
@@ -10420,7 +10420,7 @@
         <v>1247</v>
       </c>
       <c r="B1249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250">
@@ -10716,7 +10716,7 @@
         <v>1284</v>
       </c>
       <c r="B1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287">
@@ -10772,7 +10772,7 @@
         <v>1291</v>
       </c>
       <c r="B1293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -10900,7 +10900,7 @@
         <v>1307</v>
       </c>
       <c r="B1309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -10916,7 +10916,7 @@
         <v>1309</v>
       </c>
       <c r="B1311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -10956,7 +10956,7 @@
         <v>1314</v>
       </c>
       <c r="B1316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -11404,7 +11404,7 @@
         <v>1370</v>
       </c>
       <c r="B1372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -11428,7 +11428,7 @@
         <v>1373</v>
       </c>
       <c r="B1375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376">
@@ -11580,7 +11580,7 @@
         <v>1392</v>
       </c>
       <c r="B1394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -11748,7 +11748,7 @@
         <v>1413</v>
       </c>
       <c r="B1415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -11892,7 +11892,7 @@
         <v>1431</v>
       </c>
       <c r="B1433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -12060,7 +12060,7 @@
         <v>1452</v>
       </c>
       <c r="B1454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455">
@@ -12068,7 +12068,7 @@
         <v>1453</v>
       </c>
       <c r="B1455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456">
@@ -12260,7 +12260,7 @@
         <v>1477</v>
       </c>
       <c r="B1479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -12348,7 +12348,7 @@
         <v>1488</v>
       </c>
       <c r="B1490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491">
@@ -12420,7 +12420,7 @@
         <v>1497</v>
       </c>
       <c r="B1499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -12468,7 +12468,7 @@
         <v>1503</v>
       </c>
       <c r="B1505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506">
@@ -12500,7 +12500,7 @@
         <v>1507</v>
       </c>
       <c r="B1509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510">
@@ -13068,7 +13068,7 @@
         <v>1578</v>
       </c>
       <c r="B1580" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581">
@@ -13348,7 +13348,7 @@
         <v>1613</v>
       </c>
       <c r="B1615" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1616">
@@ -13380,7 +13380,7 @@
         <v>1617</v>
       </c>
       <c r="B1619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620">
@@ -13492,7 +13492,7 @@
         <v>1631</v>
       </c>
       <c r="B1633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1634">
@@ -13716,7 +13716,7 @@
         <v>1659</v>
       </c>
       <c r="B1661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1662">
@@ -13828,7 +13828,7 @@
         <v>1673</v>
       </c>
       <c r="B1675" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676">
@@ -14020,7 +14020,7 @@
         <v>1697</v>
       </c>
       <c r="B1699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1700">
@@ -14124,7 +14124,7 @@
         <v>1710</v>
       </c>
       <c r="B1712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1713">
@@ -14420,7 +14420,7 @@
         <v>1747</v>
       </c>
       <c r="B1749" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1750">
@@ -14444,7 +14444,7 @@
         <v>1750</v>
       </c>
       <c r="B1752" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1753">
@@ -14532,7 +14532,7 @@
         <v>1761</v>
       </c>
       <c r="B1763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1764">
@@ -14556,7 +14556,7 @@
         <v>1764</v>
       </c>
       <c r="B1766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1767">
@@ -14788,7 +14788,7 @@
         <v>1793</v>
       </c>
       <c r="B1795" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1796">
@@ -15068,7 +15068,7 @@
         <v>1828</v>
       </c>
       <c r="B1830" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1831">
@@ -15108,7 +15108,7 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836">
@@ -15244,7 +15244,7 @@
         <v>1850</v>
       </c>
       <c r="B1852" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853">
@@ -15260,7 +15260,7 @@
         <v>1852</v>
       </c>
       <c r="B1854" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1855">
@@ -15332,7 +15332,7 @@
         <v>1861</v>
       </c>
       <c r="B1863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1864">
@@ -15612,7 +15612,7 @@
         <v>1896</v>
       </c>
       <c r="B1898" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1899">
@@ -15652,7 +15652,7 @@
         <v>1901</v>
       </c>
       <c r="B1903" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -15780,7 +15780,7 @@
         <v>1917</v>
       </c>
       <c r="B1919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1920">
@@ -15876,7 +15876,7 @@
         <v>1929</v>
       </c>
       <c r="B1931" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932">
@@ -16012,7 +16012,7 @@
         <v>1946</v>
       </c>
       <c r="B1948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1949">
@@ -16148,7 +16148,7 @@
         <v>1963</v>
       </c>
       <c r="B1965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1966">
@@ -16212,7 +16212,7 @@
         <v>1971</v>
       </c>
       <c r="B1973" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1974">
@@ -16292,7 +16292,7 @@
         <v>1981</v>
       </c>
       <c r="B1983" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1984">
@@ -16348,7 +16348,7 @@
         <v>1988</v>
       </c>
       <c r="B1990" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1991">
@@ -16508,7 +16508,7 @@
         <v>2008</v>
       </c>
       <c r="B2010" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011">
@@ -16652,7 +16652,7 @@
         <v>2026</v>
       </c>
       <c r="B2028" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029">
@@ -16796,7 +16796,7 @@
         <v>2044</v>
       </c>
       <c r="B2046" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2047">
@@ -16964,7 +16964,7 @@
         <v>2065</v>
       </c>
       <c r="B2067" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
@@ -16980,7 +16980,7 @@
         <v>2067</v>
       </c>
       <c r="B2069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2070">
@@ -16996,7 +16996,7 @@
         <v>2069</v>
       </c>
       <c r="B2071" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2072">
@@ -17044,7 +17044,7 @@
         <v>2075</v>
       </c>
       <c r="B2077" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2078">
@@ -17076,7 +17076,7 @@
         <v>2079</v>
       </c>
       <c r="B2081" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2082">
@@ -17100,7 +17100,7 @@
         <v>2082</v>
       </c>
       <c r="B2084" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2085">
@@ -17180,7 +17180,7 @@
         <v>2092</v>
       </c>
       <c r="B2094" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2095">
@@ -17676,7 +17676,7 @@
         <v>2154</v>
       </c>
       <c r="B2156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2157">
@@ -17740,7 +17740,7 @@
         <v>2162</v>
       </c>
       <c r="B2164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2165">
@@ -18212,7 +18212,7 @@
         <v>2221</v>
       </c>
       <c r="B2223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2224">
@@ -18268,7 +18268,7 @@
         <v>2228</v>
       </c>
       <c r="B2230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2231">
@@ -18348,7 +18348,7 @@
         <v>2238</v>
       </c>
       <c r="B2240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -18492,7 +18492,7 @@
         <v>2256</v>
       </c>
       <c r="B2258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2259">
@@ -18580,7 +18580,7 @@
         <v>2267</v>
       </c>
       <c r="B2269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270">
@@ -18716,7 +18716,7 @@
         <v>2284</v>
       </c>
       <c r="B2286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2287">
@@ -18780,7 +18780,7 @@
         <v>2292</v>
       </c>
       <c r="B2294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2295">
@@ -18788,7 +18788,7 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2296">
@@ -19084,7 +19084,7 @@
         <v>2330</v>
       </c>
       <c r="B2332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2333">
@@ -19156,7 +19156,7 @@
         <v>2339</v>
       </c>
       <c r="B2341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2342">
@@ -19452,7 +19452,7 @@
         <v>2376</v>
       </c>
       <c r="B2378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2379">
@@ -19516,7 +19516,7 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387">
@@ -19604,7 +19604,7 @@
         <v>2395</v>
       </c>
       <c r="B2397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2398">
@@ -19716,7 +19716,7 @@
         <v>2409</v>
       </c>
       <c r="B2411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2412">
@@ -20044,7 +20044,7 @@
         <v>2450</v>
       </c>
       <c r="B2452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2453">
@@ -20052,7 +20052,7 @@
         <v>2451</v>
       </c>
       <c r="B2453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454">
@@ -20124,7 +20124,7 @@
         <v>2460</v>
       </c>
       <c r="B2462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2463">
@@ -20300,7 +20300,7 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2485">
@@ -20308,7 +20308,7 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486">
@@ -20404,7 +20404,7 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2498">
@@ -20836,7 +20836,7 @@
         <v>2549</v>
       </c>
       <c r="B2551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2552">
@@ -21036,7 +21036,7 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2577">
@@ -21244,7 +21244,7 @@
         <v>2600</v>
       </c>
       <c r="B2602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2603">
@@ -21252,7 +21252,7 @@
         <v>2601</v>
       </c>
       <c r="B2603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2604">
@@ -21268,7 +21268,7 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2606">
@@ -21380,7 +21380,7 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2620">
@@ -21420,7 +21420,7 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2625">
@@ -21516,7 +21516,7 @@
         <v>2634</v>
       </c>
       <c r="B2636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2637">
@@ -21540,7 +21540,7 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2640">
@@ -21636,7 +21636,7 @@
         <v>2649</v>
       </c>
       <c r="B2651" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652">
@@ -21668,7 +21668,7 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2656">
@@ -21700,7 +21700,7 @@
         <v>2657</v>
       </c>
       <c r="B2659" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2660">
@@ -21756,7 +21756,7 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2667">
@@ -21860,7 +21860,7 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2680">
@@ -21948,7 +21948,7 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2691">
@@ -21980,7 +21980,7 @@
         <v>2692</v>
       </c>
       <c r="B2694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2695">
@@ -21996,7 +21996,7 @@
         <v>2694</v>
       </c>
       <c r="B2696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2697">
@@ -22204,7 +22204,7 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2723">
@@ -22284,7 +22284,7 @@
         <v>2730</v>
       </c>
       <c r="B2732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2733">
@@ -22388,7 +22388,7 @@
         <v>2743</v>
       </c>
       <c r="B2745" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2746">
@@ -22476,7 +22476,7 @@
         <v>2754</v>
       </c>
       <c r="B2756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2757">
@@ -22996,7 +22996,7 @@
         <v>2819</v>
       </c>
       <c r="B2821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2822">
@@ -23076,7 +23076,7 @@
         <v>2829</v>
       </c>
       <c r="B2831" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2832">
@@ -23332,7 +23332,7 @@
         <v>2861</v>
       </c>
       <c r="B2863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2864">
@@ -23348,7 +23348,7 @@
         <v>2863</v>
       </c>
       <c r="B2865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2866">
@@ -23372,7 +23372,7 @@
         <v>2866</v>
       </c>
       <c r="B2868" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2869">
@@ -23436,7 +23436,7 @@
         <v>2874</v>
       </c>
       <c r="B2876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2877">
@@ -23748,7 +23748,7 @@
         <v>2913</v>
       </c>
       <c r="B2915" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2916">
@@ -24028,7 +24028,7 @@
         <v>2948</v>
       </c>
       <c r="B2950" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2951">
@@ -24044,7 +24044,7 @@
         <v>2950</v>
       </c>
       <c r="B2952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2953">
@@ -24156,7 +24156,7 @@
         <v>2964</v>
       </c>
       <c r="B2966" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2967">
@@ -24332,7 +24332,7 @@
         <v>2986</v>
       </c>
       <c r="B2988" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2989">
@@ -24348,7 +24348,7 @@
         <v>2988</v>
       </c>
       <c r="B2990" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2991">
@@ -24548,7 +24548,7 @@
         <v>3013</v>
       </c>
       <c r="B3015" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3016">
@@ -24812,7 +24812,7 @@
         <v>3046</v>
       </c>
       <c r="B3048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3049">
@@ -24828,7 +24828,7 @@
         <v>3048</v>
       </c>
       <c r="B3050" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3051">
@@ -24908,7 +24908,7 @@
         <v>3058</v>
       </c>
       <c r="B3060" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3061">
@@ -24940,7 +24940,7 @@
         <v>3062</v>
       </c>
       <c r="B3064" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3065">
@@ -25292,7 +25292,7 @@
         <v>3106</v>
       </c>
       <c r="B3108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3109">
@@ -25756,7 +25756,7 @@
         <v>3164</v>
       </c>
       <c r="B3166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3167">
@@ -25772,7 +25772,7 @@
         <v>3166</v>
       </c>
       <c r="B3168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3169">
@@ -25828,7 +25828,7 @@
         <v>3173</v>
       </c>
       <c r="B3175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3176">
@@ -25860,7 +25860,7 @@
         <v>3177</v>
       </c>
       <c r="B3179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3180">
@@ -25884,7 +25884,7 @@
         <v>3180</v>
       </c>
       <c r="B3182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3183">
@@ -26036,7 +26036,7 @@
         <v>3199</v>
       </c>
       <c r="B3201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3202">
@@ -26052,7 +26052,7 @@
         <v>3201</v>
       </c>
       <c r="B3203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3204">
@@ -26164,7 +26164,7 @@
         <v>3215</v>
       </c>
       <c r="B3217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218">
@@ -26172,7 +26172,7 @@
         <v>3216</v>
       </c>
       <c r="B3218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3219">
@@ -26188,7 +26188,7 @@
         <v>3218</v>
       </c>
       <c r="B3220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3221">
@@ -26284,7 +26284,7 @@
         <v>3230</v>
       </c>
       <c r="B3232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3233">
@@ -26340,7 +26340,7 @@
         <v>3237</v>
       </c>
       <c r="B3239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3240">
@@ -26860,7 +26860,7 @@
         <v>3302</v>
       </c>
       <c r="B3304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3305">
@@ -27012,7 +27012,7 @@
         <v>3321</v>
       </c>
       <c r="B3323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3324">
@@ -27180,7 +27180,7 @@
         <v>3342</v>
       </c>
       <c r="B3344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3345">
@@ -27188,7 +27188,7 @@
         <v>3343</v>
       </c>
       <c r="B3345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3346">
@@ -27228,7 +27228,7 @@
         <v>3348</v>
       </c>
       <c r="B3350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3351">
@@ -27460,7 +27460,7 @@
         <v>3377</v>
       </c>
       <c r="B3379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3380">
@@ -27820,7 +27820,7 @@
         <v>3422</v>
       </c>
       <c r="B3424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3425">
@@ -28068,7 +28068,7 @@
         <v>3453</v>
       </c>
       <c r="B3455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3456">
@@ -28092,7 +28092,7 @@
         <v>3456</v>
       </c>
       <c r="B3458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3459">
@@ -28300,7 +28300,7 @@
         <v>3482</v>
       </c>
       <c r="B3484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3485">
